--- a/datasets/Henderson79_data.xlsx
+++ b/datasets/Henderson79_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoff Boynton\Documents\MATLAB\p2p-cortical\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ione Fine\Documents\code\p2p-cortical_new\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7EBF6F-B76B-4137-9CBF-71FC006F38BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10455" windowHeight="7410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10455" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,9 +39,6 @@
     <t>experiment</t>
   </si>
   <si>
-    <t>dur1</t>
-  </si>
-  <si>
     <t>freq</t>
   </si>
   <si>
@@ -68,12 +64,15 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>pd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -415,25 +414,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.04296875" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="8.953125" customWidth="1"/>
-    <col min="5" max="5" width="7.6796875" customWidth="1"/>
-    <col min="6" max="6" width="11.6796875" customWidth="1"/>
-    <col min="7" max="7" width="6.6796875" customWidth="1"/>
-    <col min="8" max="8" width="11.6796875" customWidth="1"/>
-    <col min="9" max="9" width="4.54296875" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.06640625" customWidth="1"/>
+    <col min="2" max="2" width="3.19921875" customWidth="1"/>
+    <col min="3" max="3" width="10.53125" customWidth="1"/>
+    <col min="4" max="4" width="8.9296875" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4.53125" customWidth="1"/>
+    <col min="10" max="10" width="6.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -447,22 +446,22 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -473,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>2.5000000000000001E-4</v>
@@ -499,10 +498,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>5.0000000000000001E-4</v>
@@ -525,10 +524,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>2.5000000000000001E-4</v>
@@ -551,10 +550,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>2.5000000000000001E-4</v>
@@ -577,10 +576,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>2.5000000000000001E-4</v>
@@ -603,10 +602,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>2.5000000000000001E-4</v>
@@ -629,10 +628,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>2.5000000000000001E-4</v>
@@ -655,10 +654,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>2.5000000000000001E-4</v>
@@ -681,10 +680,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>5.0000000000000001E-4</v>
@@ -707,10 +706,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>5.0000000000000001E-4</v>
@@ -733,10 +732,10 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>5.0000000000000001E-4</v>
@@ -759,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>5.0000000000000001E-4</v>
@@ -785,10 +784,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>5.0000000000000001E-4</v>
@@ -811,10 +810,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>5.0000000000000001E-4</v>
@@ -837,10 +836,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>5.0000000000000001E-4</v>
@@ -863,10 +862,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>5.0000000000000001E-4</v>
@@ -889,10 +888,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>5.0000000000000001E-4</v>
@@ -915,10 +914,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>5.0000000000000001E-4</v>
@@ -941,10 +940,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>5.0000000000000001E-4</v>
@@ -967,10 +966,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>5.0000000000000001E-4</v>
@@ -993,10 +992,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>5.0000000000000001E-4</v>
@@ -1019,10 +1018,10 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>5.0000000000000001E-4</v>
@@ -1045,10 +1044,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>5.0000000000000001E-4</v>
@@ -1071,10 +1070,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>5.0000000000000001E-4</v>
